--- a/biology/Médecine/Mutilation_politique_dans_la_culture_byzantine/Mutilation_politique_dans_la_culture_byzantine.xlsx
+++ b/biology/Médecine/Mutilation_politique_dans_la_culture_byzantine/Mutilation_politique_dans_la_culture_byzantine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutilation est une méthode courante de punition pour les criminels dans l'Empire byzantin, mais elle a également un rôle dans la vie politique de l'empire[1]. En aveuglant un rival, non seulement on restreint sa mobilité, mais on lui rend également presque impossible de mener une armée au combat, qui est alors une part importante de la prise de contrôle de l'empire. La castration est également utilisée pour éliminer les adversaires potentiels.
-Dans l'Empire byzantin, pour un homme, être castré signifie qu'il n'est plus un homme, « il vit une vie qui est à moitié morte »[2]. La castration élimine également toute chance que des héritiers naissent pour menacer la place de l'empereur ou des enfants de l'empereur au trône. D'autres mutilations courantes sont par exemple la section du nez (rhinotomie) ou l'amputation de membres.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutilation est une méthode courante de punition pour les criminels dans l'Empire byzantin, mais elle a également un rôle dans la vie politique de l'empire. En aveuglant un rival, non seulement on restreint sa mobilité, mais on lui rend également presque impossible de mener une armée au combat, qui est alors une part importante de la prise de contrôle de l'empire. La castration est également utilisée pour éliminer les adversaires potentiels.
+Dans l'Empire byzantin, pour un homme, être castré signifie qu'il n'est plus un homme, « il vit une vie qui est à moitié morte ». La castration élimine également toute chance que des héritiers naissent pour menacer la place de l'empereur ou des enfants de l'empereur au trône. D'autres mutilations courantes sont par exemple la section du nez (rhinotomie) ou l'amputation de membres.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Raisonnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutilation des rivaux politiques par l'empereur est considérée comme un moyen efficace d'écarter de la succession une personne considérée comme une menace. Les hommes castrés ne sont pas considérés comme une menace, car peu importe le pouvoir qu'ils acquièrent, ils ne pourront jamais monter sur le trône, et de nombreux eunuques se voient ainsi confier des fonctions élevées et confidentielles dans la cour et l'administration byzantines. Dans la culture théocratique byzantine, l'empereur est le reflet de l'autorité céleste. Puisque Dieu est parfait, l'empereur doit aussi être sans tache physique ; toute mutilation, en particulier les blessures au visage, disqualifient un individu pour monter sur le trône[3]. Justinien II  (ὁ Ῥινότμητος, "au nez fendu") est une rare exception, il se fait couper le nez lorsqu'il est renversé en 695 mais peut redevenir empereur en 705[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutilation des rivaux politiques par l'empereur est considérée comme un moyen efficace d'écarter de la succession une personne considérée comme une menace. Les hommes castrés ne sont pas considérés comme une menace, car peu importe le pouvoir qu'ils acquièrent, ils ne pourront jamais monter sur le trône, et de nombreux eunuques se voient ainsi confier des fonctions élevées et confidentielles dans la cour et l'administration byzantines. Dans la culture théocratique byzantine, l'empereur est le reflet de l'autorité céleste. Puisque Dieu est parfait, l'empereur doit aussi être sans tache physique ; toute mutilation, en particulier les blessures au visage, disqualifient un individu pour monter sur le trône. Justinien II  (ὁ Ῥινότμητος, "au nez fendu") est une rare exception, il se fait couper le nez lorsqu'il est renversé en 695 mais peut redevenir empereur en 705.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aveuglement comme punition pour les rivaux politiques et une peine reconnue pour trahison est établi en 705, bien que Phocas l'ait également utilisé plus tôt pendant son règne, devenant une pratique courante à partir d'Héraclius[5]. La castration en tant que punition pour les rivaux politiques n'entre en vigueur que bien plus tard, devenant populaire aux Xe et XIe siècles. Un exemple est celui de Basile Lécapène, le fils illégitime de l'empereur Romain I Lécapène, qui est castré dans sa jeunesse. Il acquiert suffisamment de pouvoir pour devenir parakimomène et premier ministre effectif de trois empereurs successifs, mais ne peut pas assumer lui-même le trône[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aveuglement comme punition pour les rivaux politiques et une peine reconnue pour trahison est établi en 705, bien que Phocas l'ait également utilisé plus tôt pendant son règne, devenant une pratique courante à partir d'Héraclius. La castration en tant que punition pour les rivaux politiques n'entre en vigueur que bien plus tard, devenant populaire aux Xe et XIe siècles. Un exemple est celui de Basile Lécapène, le fils illégitime de l'empereur Romain I Lécapène, qui est castré dans sa jeunesse. Il acquiert suffisamment de pouvoir pour devenir parakimomène et premier ministre effectif de trois empereurs successifs, mais ne peut pas assumer lui-même le trône,.
 </t>
         </is>
       </c>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
